--- a/websvr/nsvr/test.xlsx
+++ b/websvr/nsvr/test.xlsx
@@ -1955,8 +1955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N470"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A451" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2167,7 +2167,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1">
+        <v>42722</v>
+      </c>
       <c r="B18" s="1"/>
       <c r="D18" s="6" t="s">
         <v>22</v>
